--- a/biology/Zoologie/Cimeliidae/Cimeliidae.xlsx
+++ b/biology/Zoologie/Cimeliidae/Cimeliidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cimeliidae sont une famille de lépidoptères de la super-famille des Drepanoidea.
-Cette famille était auparavant nommée « Axiidae », mais en raison d'une homonymie avec une famille de crustacés décapodes, ce nom a été remplacé en 2007 par Cimeliidae[1].
+Cette famille était auparavant nommée « Axiidae », mais en raison d'une homonymie avec une famille de crustacés décapodes, ce nom a été remplacé en 2007 par Cimeliidae.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille comprend deux genres et six espèces[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille comprend deux genres et six espèces :
 genre Axia :
 Axia olga (Staudinger, 1900)
-Axia margarita (Hübner, [1813]) – la Timie-perle
+Axia margarita (Hübner, ) – la Timie-perle
 Axia napoleona Schawerda, 1926 – la Timie corse
 Axia nesiota Reisser, 1962
 Axia vaulogeri (Staudinger, 1892)
